--- a/biology/Zoologie/Chazara/Chazara.xlsx
+++ b/biology/Zoologie/Chazara/Chazara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Chazara regroupe des lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Satyrinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Chazara leur a été donné par Frederic Moore en 1893.
 Synonyme : Philareta Moore, 1893.
@@ -543,14 +557,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chazara bischoffii (Herrich-Schäffer, 1846); au Moyen-Orient et en Iran.
 Chazara briseis (Linnaeus, 1764) — Hermite.
 Chazara briseis armena Jachontov, 1911; en Arménie
 Chazara briseis fergana (Staudinger, 1886)
 Chazara briseis hyrcana (Staudinger, 1886)
-Chazara briseis magna Heyne, [1894];
+Chazara briseis magna Heyne, ;
 Chazara briseis major (Oberthür, 1876); en Afrique du Nord.
 Chazara briseis meridionalis (Staudinger, 1886) dans le sud de l'Europe et en Sibérie.
 Chazara briseis saga (Fruhstorfer, 1909)
@@ -599,7 +615,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) funet</t>
         </is>
